--- a/quanlythuvien/data/ThuNgan.xlsx
+++ b/quanlythuvien/data/ThuNgan.xlsx
@@ -57,10 +57,10 @@
     <t>Hoang Ngoc Quang</t>
   </si>
   <si>
-    <t>05-06-2020 12:47:05</t>
-  </si>
-  <si>
-    <t>11-09-1955 06:20:29</t>
+    <t>28/05/2012 04:03:49</t>
+  </si>
+  <si>
+    <t>1987/04/12 03:55:22</t>
   </si>
   <si>
     <t>(84-34) 3 832 256</t>
@@ -72,10 +72,10 @@
     <t>Hoang Hong Quy</t>
   </si>
   <si>
-    <t>14-12-2018 10:11:06</t>
-  </si>
-  <si>
-    <t>14-05-1977 06:46:33</t>
+    <t>20/04/2019 05:52:39</t>
+  </si>
+  <si>
+    <t>2005/01/15 02:18:38</t>
   </si>
   <si>
     <t>(04) 36648767</t>
@@ -87,10 +87,10 @@
     <t>Hoang Ngoc Tru</t>
   </si>
   <si>
-    <t>07-01-2019 10:51:38</t>
-  </si>
-  <si>
-    <t>30-08-1950 11:59:15</t>
+    <t>20/11/2018 08:05:03</t>
+  </si>
+  <si>
+    <t>1988/08/01 15:31:53</t>
   </si>
   <si>
     <t>(84-8) 8411725</t>
@@ -102,10 +102,10 @@
     <t>Hoang The Anh</t>
   </si>
   <si>
-    <t>22-05-2018 02:20:09</t>
-  </si>
-  <si>
-    <t>28-07-1968 17:08:12</t>
+    <t>14/02/2019 02:29:05</t>
+  </si>
+  <si>
+    <t>2009/09/27 08:06:28</t>
   </si>
   <si>
     <t>(84-8) 8436722</t>
@@ -117,10 +117,10 @@
     <t>Hoang Duong Anh</t>
   </si>
   <si>
-    <t>09-12-2012 23:14:40</t>
-  </si>
-  <si>
-    <t>26-02-1956 06:52:05</t>
+    <t>20/05/2011 21:00:17</t>
+  </si>
+  <si>
+    <t>2001/05/17 10:14:14</t>
   </si>
   <si>
     <t>(84-18) 385 2043</t>
@@ -132,10 +132,10 @@
     <t>Hoang Hong Thinh</t>
   </si>
   <si>
-    <t>24-03-2013 08:01:02</t>
-  </si>
-  <si>
-    <t>14-12-1997 03:11:17</t>
+    <t>02/04/2020 01:13:21</t>
+  </si>
+  <si>
+    <t>1992/01/27 17:38:02</t>
   </si>
   <si>
     <t>04.37478310</t>
@@ -147,10 +147,10 @@
     <t>Hoang Quoc Minh</t>
   </si>
   <si>
-    <t>16-04-2012 06:06:21</t>
-  </si>
-  <si>
-    <t>18-08-1961 13:23:05</t>
+    <t>02/12/2014 14:40:50</t>
+  </si>
+  <si>
+    <t>1996/06/01 14:44:52</t>
   </si>
   <si>
     <t>(84-8) 3875 0053/(84-8) 3875 0214</t>
@@ -162,10 +162,10 @@
     <t>Hoang The Son</t>
   </si>
   <si>
-    <t>28-07-2016 20:02:10</t>
-  </si>
-  <si>
-    <t>19-10-1963 21:09:46</t>
+    <t>10/07/2020 13:26:28</t>
+  </si>
+  <si>
+    <t>2000/02/24 19:42:17</t>
   </si>
   <si>
     <t>08. 7542186</t>
@@ -174,10 +174,10 @@
     <t>Hoang Thanh Nguyen</t>
   </si>
   <si>
-    <t>26-10-2011 15:13:52</t>
-  </si>
-  <si>
-    <t>23-02-1957 12:44:42</t>
+    <t>22/03/2019 14:31:34</t>
+  </si>
+  <si>
+    <t>1995/11/24 07:05:47</t>
   </si>
   <si>
     <t>(84-8) 38 480 035</t>
@@ -189,10 +189,10 @@
     <t>Hoang An Nam</t>
   </si>
   <si>
-    <t>17-11-2015 08:47:05</t>
-  </si>
-  <si>
-    <t>29-06-1987 08:30:42</t>
+    <t>07/09/2012 16:58:29</t>
+  </si>
+  <si>
+    <t>1981/08/20 00:04:23</t>
   </si>
   <si>
     <t>(08) 38576156/38578257</t>
@@ -204,10 +204,10 @@
     <t>Tran Uyen Nhi</t>
   </si>
   <si>
-    <t>01-01-2011 01:46:06</t>
-  </si>
-  <si>
-    <t>02-11-1968 00:07:21</t>
+    <t>29/10/2010 03:33:41</t>
+  </si>
+  <si>
+    <t>1981/11/27 17:30:34</t>
   </si>
   <si>
     <t>(84-4) 3823 4142/(84-4) 3823 5465</t>
@@ -219,10 +219,10 @@
     <t>Tran Nhat Thuong</t>
   </si>
   <si>
-    <t>27-03-2020 21:04:57</t>
-  </si>
-  <si>
-    <t>26-06-1998 02:22:37</t>
+    <t>05/08/2015 13:18:17</t>
+  </si>
+  <si>
+    <t>1996/04/25 06:01:19</t>
   </si>
   <si>
     <t>84-90-6274687</t>
@@ -234,10 +234,10 @@
     <t>Tran Viet Tuyet</t>
   </si>
   <si>
-    <t>03-03-2019 17:00:10</t>
-  </si>
-  <si>
-    <t>07-09-1956 09:20:22</t>
+    <t>02/12/2013 15:02:25</t>
+  </si>
+  <si>
+    <t>1987/02/05 02:50:20</t>
   </si>
   <si>
     <t>( 84-8) 38944992</t>
@@ -249,10 +249,10 @@
     <t>Tran Vi An</t>
   </si>
   <si>
-    <t>15-01-2016 23:24:04</t>
-  </si>
-  <si>
-    <t>28-01-1960 08:14:00</t>
+    <t>27/09/2013 05:12:50</t>
+  </si>
+  <si>
+    <t>2003/02/24 12:28:40</t>
   </si>
   <si>
     <t>(84-8) 9974999</t>
@@ -264,10 +264,10 @@
     <t>Tran Bich Phuong</t>
   </si>
   <si>
-    <t>08-12-2016 11:06:32</t>
-  </si>
-  <si>
-    <t>04-12-1974 04:37:37</t>
+    <t>22/05/2018 08:57:45</t>
+  </si>
+  <si>
+    <t>2007/05/27 08:39:31</t>
   </si>
   <si>
     <t>Industrial zones Yen Phong, Yen Phong, Phu Nhuan District, Ho Chi Minh City</t>
@@ -276,10 +276,10 @@
     <t>Tran Ngoc Diem</t>
   </si>
   <si>
-    <t>27-03-2015 06:56:52</t>
-  </si>
-  <si>
-    <t>01-03-1981 01:15:00</t>
+    <t>17/01/2011 14:40:24</t>
+  </si>
+  <si>
+    <t>1999/11/26 00:20:29</t>
   </si>
   <si>
     <t>Nguyen Dang Dao, District Ninh Kieu, Can Tho</t>
@@ -288,10 +288,10 @@
     <t>Tran Minh Ngan</t>
   </si>
   <si>
-    <t>01-10-2020 11:08:26</t>
-  </si>
-  <si>
-    <t>11-01-1988 13:49:44</t>
+    <t>01/06/2011 22:29:50</t>
+  </si>
+  <si>
+    <t>1994/06/10 15:36:46</t>
   </si>
   <si>
     <t>Chua Thong Street, Son Loc Ward, Son Tay Town, Tan Phong Ward, Ho Chi Minh City</t>
@@ -300,10 +300,10 @@
     <t>Tran Thien Giang</t>
   </si>
   <si>
-    <t>22-05-2012 11:29:14</t>
-  </si>
-  <si>
-    <t>16-03-1978 18:54:17</t>
+    <t>04/11/2017 10:56:36</t>
+  </si>
+  <si>
+    <t>1988/08/31 11:50:16</t>
   </si>
   <si>
     <t>1/22A Au Co St., Tan Son Nhi Ward, Ho Chi Minh City, Ho Chi Minh City</t>
@@ -312,10 +312,10 @@
     <t>Tran Ai Nhi</t>
   </si>
   <si>
-    <t>25-11-2017 16:17:52</t>
-  </si>
-  <si>
-    <t>18-06-1967 02:51:14</t>
+    <t>15/07/2019 01:41:15</t>
+  </si>
+  <si>
+    <t>1985/04/21 14:38:27</t>
   </si>
   <si>
     <t>304/51a Dao Duy Anh, 9 Ward, Minh Khai Ward, Ho Chi Minh City</t>
@@ -324,10 +324,10 @@
     <t>Tran Cam Chi</t>
   </si>
   <si>
-    <t>30-08-2014 07:18:25</t>
-  </si>
-  <si>
-    <t>04-10-1987 18:58:42</t>
+    <t>03/10/2010 22:15:41</t>
+  </si>
+  <si>
+    <t>2004/06/17 22:23:10</t>
   </si>
   <si>
     <t>229 Bai Say St., Ward 4, Dist. 6, Gia Lam District, Hanoi</t>
@@ -336,10 +336,10 @@
     <t>Nguyen Quang Thong</t>
   </si>
   <si>
-    <t>13-08-2017 04:31:19</t>
-  </si>
-  <si>
-    <t>05-11-1965 20:36:22</t>
+    <t>14/11/2018 22:31:50</t>
+  </si>
+  <si>
+    <t>1982/07/09 18:49:07</t>
   </si>
   <si>
     <t>1C Trang Tien, Trang Tien Ward, Hoang Mai Dist., Haiphong</t>
@@ -348,19 +348,19 @@
     <t>Nguyen Ngoc Thach</t>
   </si>
   <si>
-    <t>06-08-2014 18:48:01</t>
-  </si>
-  <si>
-    <t>21-01-1987 03:43:23</t>
+    <t>21/02/2020 08:40:24</t>
+  </si>
+  <si>
+    <t>1987/10/04 09:05:33</t>
   </si>
   <si>
     <t>Nguyen Thanh Thien</t>
   </si>
   <si>
-    <t>08-10-2019 06:34:35</t>
-  </si>
-  <si>
-    <t>08-06-1981 10:20:46</t>
+    <t>11/03/2020 22:47:51</t>
+  </si>
+  <si>
+    <t>2005/02/22 17:09:32</t>
   </si>
   <si>
     <t>21 Ha Huy Tap street, Phu My Hung, Tan Phong Ward, Dong Da District, Hanoi</t>
@@ -369,10 +369,10 @@
     <t>Nguyen Truong An</t>
   </si>
   <si>
-    <t>31-08-2014 04:42:51</t>
-  </si>
-  <si>
-    <t>06-10-1983 07:57:26</t>
+    <t>21/09/2014 14:58:59</t>
+  </si>
+  <si>
+    <t>2006/04/08 08:16:10</t>
   </si>
   <si>
     <t>16B Da Nang St., May To Ward, Gia Lam District, Ho Chi Minh City</t>
@@ -381,10 +381,10 @@
     <t>Nguyen Khai Tam</t>
   </si>
   <si>
-    <t>15-08-2019 19:15:54</t>
-  </si>
-  <si>
-    <t>01-02-1964 18:47:17</t>
+    <t>12/07/2013 14:47:06</t>
+  </si>
+  <si>
+    <t>2002/09/22 00:20:25</t>
   </si>
   <si>
     <t>166-172 Street 1, Binh Tri Dong B Ward, Hoang Mai Dist., Hanoi</t>
@@ -393,10 +393,10 @@
     <t>Nguyen Duy Hung</t>
   </si>
   <si>
-    <t>04-12-2011 18:27:58</t>
-  </si>
-  <si>
-    <t>09-09-1972 23:43:37</t>
+    <t>29/07/2011 17:38:34</t>
+  </si>
+  <si>
+    <t>2004/02/22 08:37:53</t>
   </si>
   <si>
     <t>20 Le Hong Phong Street, Ho Chi Minh City, Hanoi</t>
@@ -405,10 +405,10 @@
     <t>Nguyen Anh Thai</t>
   </si>
   <si>
-    <t>29-02-2016 12:56:18</t>
-  </si>
-  <si>
-    <t>26-11-1987 06:49:41</t>
+    <t>11/01/2013 20:38:03</t>
+  </si>
+  <si>
+    <t>2008/03/21 07:52:58</t>
   </si>
   <si>
     <t>423 Nguyen Khang St., Yen Hoa Ward, Binh Thanh District, Ho Chi Minh City</t>
@@ -417,10 +417,10 @@
     <t>Nguyen Gia Thien</t>
   </si>
   <si>
-    <t>10-12-2013 13:16:03</t>
-  </si>
-  <si>
-    <t>18-02-1975 16:10:18</t>
+    <t>21/12/2012 22:49:53</t>
+  </si>
+  <si>
+    <t>2010/01/28 09:13:10</t>
   </si>
   <si>
     <t>10 - 11 Nguyen Ai Quoc, KP 8, Ho Chi Minh City, Ho Chi Minh City</t>
@@ -429,10 +429,10 @@
     <t>Nguyen Bao Lan</t>
   </si>
   <si>
-    <t>17-08-2011 05:57:59</t>
-  </si>
-  <si>
-    <t>03-07-1957 09:15:52</t>
+    <t>24/03/2012 04:52:59</t>
+  </si>
+  <si>
+    <t>2005/03/01 18:05:46</t>
   </si>
   <si>
     <t>135 Nguyen Viet Xuan Street, Vinh City, Binh Phuoc Province, Binh Phuoc</t>
@@ -441,10 +441,10 @@
     <t>Nguyen Bich Thao</t>
   </si>
   <si>
-    <t>26-09-2011 14:00:03</t>
-  </si>
-  <si>
-    <t>12-03-1990 04:24:50</t>
+    <t>29/01/2015 12:45:37</t>
+  </si>
+  <si>
+    <t>2006/09/29 22:23:12</t>
   </si>
   <si>
     <t>Lo 9, C, Industrial zones Tan Tao, Tan Phu Dist., Ho Chi Minh City</t>
@@ -453,10 +453,10 @@
     <t>Nguyen Van Ngoc</t>
   </si>
   <si>
-    <t>07-07-2019 11:56:17</t>
-  </si>
-  <si>
-    <t>31-03-1973 06:58:01</t>
+    <t>29/09/2016 22:05:06</t>
+  </si>
+  <si>
+    <t>2001/05/14 06:25:06</t>
   </si>
   <si>
     <t>NGUYEN TRAI STREET, BA DINH WARD, THANH HOA CITY, Hai Ba Trung District., Hanoi</t>
@@ -465,10 +465,10 @@
     <t>Nguyen Van Chi</t>
   </si>
   <si>
-    <t>30-01-2011 04:29:00</t>
-  </si>
-  <si>
-    <t>31-03-1963 22:17:03</t>
+    <t>22/07/2014 06:30:21</t>
+  </si>
+  <si>
+    <t>2006/01/17 17:47:10</t>
   </si>
   <si>
     <t>22 Doc Lap Street, Phu Nhuan Dist., Ho Chi Minh City</t>
@@ -477,10 +477,10 @@
     <t>Nguyen Tu Linh</t>
   </si>
   <si>
-    <t>28-12-2020 21:10:31</t>
-  </si>
-  <si>
-    <t>20-06-1961 03:03:29</t>
+    <t>25/05/2019 17:01:58</t>
+  </si>
+  <si>
+    <t>1995/09/15 02:44:03</t>
   </si>
   <si>
     <t>No. 34A Han Thuyen, District Hai Ba Trung, Ha Noi, Hanoi</t>
@@ -489,10 +489,10 @@
     <t>Nguyen Thuy Trang</t>
   </si>
   <si>
-    <t>26-05-2017 05:53:27</t>
-  </si>
-  <si>
-    <t>16-01-1945 11:29:05</t>
+    <t>01/08/2018 12:17:20</t>
+  </si>
+  <si>
+    <t>2003/03/16 03:36:33</t>
   </si>
   <si>
     <t>126A+127 Dien Bien Phu StreetWard 6, Town, Phu Nhuan District, Ho Chi Minh City</t>
@@ -501,10 +501,10 @@
     <t>Nguyen Tue Man</t>
   </si>
   <si>
-    <t>26-07-2012 14:03:25</t>
-  </si>
-  <si>
-    <t>01-02-1979 15:07:34</t>
+    <t>15/12/2012 07:44:46</t>
+  </si>
+  <si>
+    <t>2007/02/13 09:00:41</t>
   </si>
   <si>
     <t>Tay Dang Town, Ba Vi Dist, Ho Chi Minh City, Ho Chi Minh City</t>
@@ -513,10 +513,10 @@
     <t>Nguyen Thanh Tuyet</t>
   </si>
   <si>
-    <t>04-02-2019 02:08:45</t>
-  </si>
-  <si>
-    <t>17-04-1998 15:28:11</t>
+    <t>01/09/2018 17:55:09</t>
+  </si>
+  <si>
+    <t>2004/06/14 04:54:50</t>
   </si>
   <si>
     <t>Collective Academy of Finance, Group 10, Cau Dien Town, Thu Duc Dist., Ho Chi Minh City</t>
@@ -525,19 +525,19 @@
     <t>Nguyen Le Chi</t>
   </si>
   <si>
-    <t>25-10-2015 10:27:16</t>
-  </si>
-  <si>
-    <t>14-12-1996 00:11:10</t>
+    <t>18/12/2011 00:01:01</t>
+  </si>
+  <si>
+    <t>2009/01/01 03:29:35</t>
   </si>
   <si>
     <t>Nguyen Quynh Thanh</t>
   </si>
   <si>
-    <t>12-06-2012 07:17:22</t>
-  </si>
-  <si>
-    <t>03-10-1994 19:04:44</t>
+    <t>22/08/2017 12:16:41</t>
+  </si>
+  <si>
+    <t>1982/07/15 22:29:35</t>
   </si>
   <si>
     <t>1425 - 1427, Area My Toan 2, Tan Phong, Thu Duc Dist., Ho Chi Minh City</t>
@@ -546,10 +546,10 @@
     <t>Nguyen Minh Tam</t>
   </si>
   <si>
-    <t>09-10-2020 20:58:50</t>
-  </si>
-  <si>
-    <t>03-12-1981 23:52:47</t>
+    <t>27/09/2018 01:58:06</t>
+  </si>
+  <si>
+    <t>1994/11/11 08:46:05</t>
   </si>
   <si>
     <t>Thanh Tri Ward, Nam Dinh City, Nam Dinh</t>
@@ -558,10 +558,10 @@
     <t>Nguyen Xuyen Chi</t>
   </si>
   <si>
-    <t>29-01-2013 12:51:48</t>
-  </si>
-  <si>
-    <t>18-07-1988 12:19:22</t>
+    <t>07/04/2017 06:27:25</t>
+  </si>
+  <si>
+    <t>1998/03/10 12:25:11</t>
   </si>
   <si>
     <t>75/16 Go Dau Street, Tan Quy Ward, Hai Ba Trung Dist., Hanoi</t>
@@ -570,19 +570,19 @@
     <t>Nguyen Xuan Lan</t>
   </si>
   <si>
-    <t>11-05-2020 23:46:55</t>
-  </si>
-  <si>
-    <t>06-02-1996 21:02:25</t>
+    <t>16/07/2020 02:32:21</t>
+  </si>
+  <si>
+    <t>1990/12/16 17:20:15</t>
   </si>
   <si>
     <t>Nguyen Phuong Khanh Huyen</t>
   </si>
   <si>
-    <t>29-05-2012 10:18:16</t>
-  </si>
-  <si>
-    <t>11-05-1991 16:51:38</t>
+    <t>13/06/2018 12:05:24</t>
+  </si>
+  <si>
+    <t>1988/06/23 14:05:55</t>
   </si>
   <si>
     <t>Binh Duc 1, Vung Tau City, Ba Ria-Vung Tau</t>
@@ -591,10 +591,10 @@
     <t>Vo Hai Nam</t>
   </si>
   <si>
-    <t>10-08-2013 13:55:17</t>
-  </si>
-  <si>
-    <t>19-06-1951 22:20:47</t>
+    <t>19/10/2011 15:37:42</t>
+  </si>
+  <si>
+    <t>1995/08/02 12:54:33</t>
   </si>
   <si>
     <t>No.3 , No.1 Street - Area 26B, Lien Chieu Dist., Ho Chi Minh City</t>
@@ -603,10 +603,10 @@
     <t>An Son Tung</t>
   </si>
   <si>
-    <t>14-12-2017 08:33:10</t>
-  </si>
-  <si>
-    <t>10-02-1969 14:26:21</t>
+    <t>18/02/2013 00:36:02</t>
+  </si>
+  <si>
+    <t>1990/11/27 02:44:22</t>
   </si>
   <si>
     <t>69 Nguyen Huy Dien Street, Ward 7, Thu Duc Dist., Ho Chi Minh City</t>
@@ -615,10 +615,10 @@
     <t>An Cao Tho</t>
   </si>
   <si>
-    <t>13-04-2019 18:53:28</t>
-  </si>
-  <si>
-    <t>23-10-1943 10:50:09</t>
+    <t>15/09/2017 03:00:40</t>
+  </si>
+  <si>
+    <t>1997/06/14 07:51:17</t>
   </si>
   <si>
     <t>12 Dien Bien Phu, Hai Chau District, Da Nang</t>
@@ -627,10 +627,10 @@
     <t>An Thanh Chau</t>
   </si>
   <si>
-    <t>12-12-2016 10:40:46</t>
-  </si>
-  <si>
-    <t>20-06-1972 20:31:16</t>
+    <t>22/11/2013 00:53:38</t>
+  </si>
+  <si>
+    <t>1988/04/11 20:22:28</t>
   </si>
   <si>
     <t>521 - 521A Ly Thuong Kiet, Ward 8, Ho Chi Minh City, Ho Chi Minh City</t>
@@ -639,19 +639,19 @@
     <t>An Hung Ðao</t>
   </si>
   <si>
-    <t>14-11-2018 11:10:48</t>
-  </si>
-  <si>
-    <t>19-07-1961 02:31:48</t>
+    <t>25/11/2018 14:09:12</t>
+  </si>
+  <si>
+    <t>1994/09/02 19:21:55</t>
   </si>
   <si>
     <t>An Ngoc Ha</t>
   </si>
   <si>
-    <t>26-11-2020 23:24:55</t>
-  </si>
-  <si>
-    <t>03-01-1984 12:20:59</t>
+    <t>18/07/2018 07:21:10</t>
+  </si>
+  <si>
+    <t>1988/07/06 05:11:27</t>
   </si>
   <si>
     <t>308A Quang Trung, P11, Ben Nghe Ward, Ho Chi Minh City</t>
@@ -660,19 +660,19 @@
     <t>An Thien Trang</t>
   </si>
   <si>
-    <t>01-10-2020 12:02:30</t>
-  </si>
-  <si>
-    <t>17-01-1946 12:58:04</t>
+    <t>13/04/2020 23:30:26</t>
+  </si>
+  <si>
+    <t>1991/04/27 19:42:32</t>
   </si>
   <si>
     <t>An Anh Ngoc</t>
   </si>
   <si>
-    <t>13-06-2012 08:44:57</t>
-  </si>
-  <si>
-    <t>24-02-1994 23:37:15</t>
+    <t>18/01/2018 15:40:53</t>
+  </si>
+  <si>
+    <t>2000/04/01 10:46:09</t>
   </si>
   <si>
     <t>10 Le Thi Rieng, Ben Thanh Ward, Dist.1, Long Binh Ward, Dong Nai</t>
@@ -681,10 +681,10 @@
     <t>An Bich Hao</t>
   </si>
   <si>
-    <t>12-07-2016 00:51:25</t>
-  </si>
-  <si>
-    <t>09-05-1962 20:39:40</t>
+    <t>28/05/2019 17:15:38</t>
+  </si>
+  <si>
+    <t>1983/09/26 17:25:03</t>
   </si>
   <si>
     <t>268 MY DO STREET, BAC GIANG CITY, Ho Chi Minh City, Ho Chi Minh City</t>
@@ -693,10 +693,10 @@
     <t>An Man Nhi</t>
   </si>
   <si>
-    <t>17-10-2011 19:16:09</t>
-  </si>
-  <si>
-    <t>15-03-1986 21:04:26</t>
+    <t>29/03/2011 17:04:49</t>
+  </si>
+  <si>
+    <t>2009/11/21 21:03:46</t>
   </si>
   <si>
     <t>649 Le Hong Phong, Ward 10, Dist.10, Tan Binh District, Ho Chi Minh City</t>
@@ -705,19 +705,19 @@
     <t>An Thai Thanh</t>
   </si>
   <si>
-    <t>03-08-2018 12:03:37</t>
-  </si>
-  <si>
-    <t>12-01-1992 03:31:52</t>
+    <t>23/07/2017 22:34:36</t>
+  </si>
+  <si>
+    <t>1995/06/05 14:38:12</t>
   </si>
   <si>
     <t>An Bao Ha</t>
   </si>
   <si>
-    <t>06-01-2011 01:51:17</t>
-  </si>
-  <si>
-    <t>01-03-1991 13:51:12</t>
+    <t>23/04/2015 10:40:23</t>
+  </si>
+  <si>
+    <t>2008/08/25 16:50:55</t>
   </si>
   <si>
     <t>300 Hai Ba Trung, District 3, Binh Thanh Dist., Hanoi</t>
@@ -726,10 +726,10 @@
     <t>An Ngoc Quynh</t>
   </si>
   <si>
-    <t>14-11-2012 15:45:49</t>
-  </si>
-  <si>
-    <t>08-04-1954 16:38:36</t>
+    <t>04/08/2014 12:38:15</t>
+  </si>
+  <si>
+    <t>2009/06/13 22:26:50</t>
   </si>
   <si>
     <t>Binh Son, Binh Tan District, Ho Chi Minh City</t>
@@ -738,10 +738,10 @@
     <t>An Phuong Bao Han</t>
   </si>
   <si>
-    <t>22-08-2019 22:14:24</t>
-  </si>
-  <si>
-    <t>05-05-1995 15:40:43</t>
+    <t>26/11/2015 02:18:21</t>
+  </si>
+  <si>
+    <t>2008/02/29 02:36:47</t>
   </si>
   <si>
     <t>Floor 5, 81C Thuy Khue Street, Ho Chi Minh City, Ho Chi Minh City</t>
@@ -750,262 +750,262 @@
     <t>An Hai Yen</t>
   </si>
   <si>
-    <t>22-05-2018 08:16:01</t>
-  </si>
-  <si>
-    <t>26-10-1941 06:26:40</t>
-  </si>
-  <si>
-    <t>19-09-2016 00:12:44</t>
-  </si>
-  <si>
-    <t>16-09-1951 13:56:54</t>
-  </si>
-  <si>
-    <t>04-04-2016 18:07:58</t>
-  </si>
-  <si>
-    <t>20-10-1979 18:55:26</t>
-  </si>
-  <si>
-    <t>15-01-2016 04:39:57</t>
-  </si>
-  <si>
-    <t>23-02-1946 05:09:19</t>
-  </si>
-  <si>
-    <t>23-11-2019 20:53:17</t>
-  </si>
-  <si>
-    <t>12-10-1985 22:55:34</t>
-  </si>
-  <si>
-    <t>23-08-2017 08:14:35</t>
-  </si>
-  <si>
-    <t>29-03-1974 18:38:51</t>
-  </si>
-  <si>
-    <t>11-08-2012 06:24:14</t>
-  </si>
-  <si>
-    <t>02-07-1987 03:06:43</t>
-  </si>
-  <si>
-    <t>01-03-2018 06:06:13</t>
-  </si>
-  <si>
-    <t>17-02-1954 05:16:12</t>
-  </si>
-  <si>
-    <t>04-06-2018 19:15:39</t>
-  </si>
-  <si>
-    <t>01-12-1985 11:07:33</t>
-  </si>
-  <si>
-    <t>26-09-2020 00:08:31</t>
-  </si>
-  <si>
-    <t>01-03-1964 08:23:03</t>
-  </si>
-  <si>
-    <t>24-06-2012 16:55:54</t>
-  </si>
-  <si>
-    <t>31-07-1975 21:02:09</t>
-  </si>
-  <si>
-    <t>01-04-2012 12:10:59</t>
-  </si>
-  <si>
-    <t>04-12-1948 09:13:14</t>
-  </si>
-  <si>
-    <t>28-10-2010 13:38:07</t>
-  </si>
-  <si>
-    <t>14-05-1954 06:32:42</t>
-  </si>
-  <si>
-    <t>06-01-2017 13:35:33</t>
-  </si>
-  <si>
-    <t>07-10-1986 00:31:38</t>
-  </si>
-  <si>
-    <t>06-10-2018 06:32:11</t>
-  </si>
-  <si>
-    <t>27-07-1980 20:26:00</t>
-  </si>
-  <si>
-    <t>01-01-2016 07:49:09</t>
-  </si>
-  <si>
-    <t>06-12-1948 14:57:40</t>
-  </si>
-  <si>
-    <t>14-12-2010 04:38:09</t>
-  </si>
-  <si>
-    <t>23-01-1989 02:57:22</t>
-  </si>
-  <si>
-    <t>06-03-2013 07:51:03</t>
-  </si>
-  <si>
-    <t>01-03-1996 11:48:30</t>
-  </si>
-  <si>
-    <t>24-03-2011 02:58:19</t>
-  </si>
-  <si>
-    <t>19-06-1983 19:23:08</t>
-  </si>
-  <si>
-    <t>19-01-2016 04:41:03</t>
-  </si>
-  <si>
-    <t>15-11-1959 16:42:19</t>
-  </si>
-  <si>
-    <t>11-11-2015 01:53:13</t>
-  </si>
-  <si>
-    <t>02-03-1964 22:09:45</t>
-  </si>
-  <si>
-    <t>04-02-2020 16:00:11</t>
-  </si>
-  <si>
-    <t>15-08-1983 11:28:18</t>
-  </si>
-  <si>
-    <t>01-05-2015 20:20:51</t>
-  </si>
-  <si>
-    <t>13-06-1994 11:35:17</t>
-  </si>
-  <si>
-    <t>25-03-2011 16:51:52</t>
-  </si>
-  <si>
-    <t>20-10-1996 05:00:28</t>
-  </si>
-  <si>
-    <t>03-12-2020 10:16:53</t>
-  </si>
-  <si>
-    <t>16-12-1989 15:44:39</t>
-  </si>
-  <si>
-    <t>24-10-2018 10:36:29</t>
-  </si>
-  <si>
-    <t>29-09-1944 05:27:08</t>
-  </si>
-  <si>
-    <t>30-08-2013 00:57:42</t>
-  </si>
-  <si>
-    <t>18-04-1959 21:53:30</t>
-  </si>
-  <si>
-    <t>21-10-2013 00:46:39</t>
-  </si>
-  <si>
-    <t>16-10-1994 13:32:00</t>
-  </si>
-  <si>
-    <t>12-03-2019 22:56:13</t>
-  </si>
-  <si>
-    <t>06-08-1977 07:43:20</t>
-  </si>
-  <si>
-    <t>13-07-2013 07:16:38</t>
-  </si>
-  <si>
-    <t>29-08-1994 08:19:05</t>
-  </si>
-  <si>
-    <t>07-04-2012 09:30:27</t>
-  </si>
-  <si>
-    <t>29-03-1971 18:32:39</t>
-  </si>
-  <si>
-    <t>07-04-2020 09:15:37</t>
-  </si>
-  <si>
-    <t>22-08-1958 23:16:23</t>
-  </si>
-  <si>
-    <t>25-04-2019 16:38:53</t>
-  </si>
-  <si>
-    <t>06-04-1969 01:47:41</t>
-  </si>
-  <si>
-    <t>13-10-2014 16:41:49</t>
-  </si>
-  <si>
-    <t>26-03-1970 02:36:03</t>
-  </si>
-  <si>
-    <t>03-07-2013 21:56:53</t>
-  </si>
-  <si>
-    <t>15-10-1981 09:48:23</t>
-  </si>
-  <si>
-    <t>31-05-2016 19:24:32</t>
-  </si>
-  <si>
-    <t>03-11-1991 09:09:35</t>
-  </si>
-  <si>
-    <t>26-10-2016 05:27:01</t>
-  </si>
-  <si>
-    <t>29-03-1999 01:24:33</t>
-  </si>
-  <si>
-    <t>31-01-2016 20:45:59</t>
-  </si>
-  <si>
-    <t>11-01-1979 23:20:06</t>
-  </si>
-  <si>
-    <t>18-12-2014 00:47:10</t>
-  </si>
-  <si>
-    <t>18-05-1983 10:23:23</t>
-  </si>
-  <si>
-    <t>18-01-2017 04:48:50</t>
-  </si>
-  <si>
-    <t>24-10-1969 17:16:29</t>
-  </si>
-  <si>
-    <t>27-06-2019 16:03:10</t>
-  </si>
-  <si>
-    <t>24-03-1952 13:32:01</t>
-  </si>
-  <si>
-    <t>25-08-2012 21:46:56</t>
-  </si>
-  <si>
-    <t>29-05-1960 07:44:58</t>
-  </si>
-  <si>
-    <t>30-06-2018 19:24:24</t>
-  </si>
-  <si>
-    <t>07-01-1947 02:12:33</t>
+    <t>07/08/2014 15:43:43</t>
+  </si>
+  <si>
+    <t>1994/11/03 01:53:51</t>
+  </si>
+  <si>
+    <t>27/04/2014 08:09:47</t>
+  </si>
+  <si>
+    <t>1998/01/17 22:05:47</t>
+  </si>
+  <si>
+    <t>23/02/2020 20:55:55</t>
+  </si>
+  <si>
+    <t>1993/01/08 18:25:35</t>
+  </si>
+  <si>
+    <t>29/03/2017 17:38:48</t>
+  </si>
+  <si>
+    <t>1983/07/10 06:52:46</t>
+  </si>
+  <si>
+    <t>20/04/2019 03:34:01</t>
+  </si>
+  <si>
+    <t>1995/01/01 14:25:19</t>
+  </si>
+  <si>
+    <t>29/10/2016 21:02:00</t>
+  </si>
+  <si>
+    <t>1982/02/04 01:13:56</t>
+  </si>
+  <si>
+    <t>10/01/2017 22:02:58</t>
+  </si>
+  <si>
+    <t>1983/08/10 10:12:56</t>
+  </si>
+  <si>
+    <t>31/03/2020 22:29:56</t>
+  </si>
+  <si>
+    <t>2002/12/27 03:42:47</t>
+  </si>
+  <si>
+    <t>02/02/2016 17:16:18</t>
+  </si>
+  <si>
+    <t>1987/10/20 16:39:26</t>
+  </si>
+  <si>
+    <t>29/08/2013 06:24:54</t>
+  </si>
+  <si>
+    <t>1985/03/26 16:17:15</t>
+  </si>
+  <si>
+    <t>20/12/2019 17:58:47</t>
+  </si>
+  <si>
+    <t>1999/02/13 00:08:43</t>
+  </si>
+  <si>
+    <t>29/08/2017 16:46:50</t>
+  </si>
+  <si>
+    <t>1998/08/29 03:48:25</t>
+  </si>
+  <si>
+    <t>26/06/2013 06:31:13</t>
+  </si>
+  <si>
+    <t>2001/05/21 13:20:15</t>
+  </si>
+  <si>
+    <t>01/06/2019 15:05:34</t>
+  </si>
+  <si>
+    <t>2005/05/27 04:37:15</t>
+  </si>
+  <si>
+    <t>28/11/2017 06:40:16</t>
+  </si>
+  <si>
+    <t>1993/05/02 06:56:59</t>
+  </si>
+  <si>
+    <t>14/05/2012 07:50:24</t>
+  </si>
+  <si>
+    <t>1993/07/02 17:07:50</t>
+  </si>
+  <si>
+    <t>24/05/2019 15:15:49</t>
+  </si>
+  <si>
+    <t>1999/09/16 04:11:28</t>
+  </si>
+  <si>
+    <t>11/04/2017 20:49:38</t>
+  </si>
+  <si>
+    <t>2006/09/28 16:30:24</t>
+  </si>
+  <si>
+    <t>15/12/2012 19:24:22</t>
+  </si>
+  <si>
+    <t>1984/03/11 17:08:16</t>
+  </si>
+  <si>
+    <t>01/10/2013 21:54:18</t>
+  </si>
+  <si>
+    <t>2004/01/15 10:57:43</t>
+  </si>
+  <si>
+    <t>10/09/2016 15:33:08</t>
+  </si>
+  <si>
+    <t>1983/07/08 08:23:27</t>
+  </si>
+  <si>
+    <t>25/03/2019 06:15:01</t>
+  </si>
+  <si>
+    <t>1992/08/29 06:13:23</t>
+  </si>
+  <si>
+    <t>20/03/2014 01:19:08</t>
+  </si>
+  <si>
+    <t>1983/07/18 02:59:42</t>
+  </si>
+  <si>
+    <t>27/06/2019 21:59:26</t>
+  </si>
+  <si>
+    <t>2006/09/01 03:35:26</t>
+  </si>
+  <si>
+    <t>22/11/2011 17:24:20</t>
+  </si>
+  <si>
+    <t>1994/07/09 21:51:10</t>
+  </si>
+  <si>
+    <t>23/01/2019 09:55:11</t>
+  </si>
+  <si>
+    <t>1997/08/11 15:35:38</t>
+  </si>
+  <si>
+    <t>07/03/2019 19:19:59</t>
+  </si>
+  <si>
+    <t>2000/09/26 18:48:52</t>
+  </si>
+  <si>
+    <t>15/08/2019 09:57:13</t>
+  </si>
+  <si>
+    <t>2008/07/18 21:04:08</t>
+  </si>
+  <si>
+    <t>04/11/2010 18:47:30</t>
+  </si>
+  <si>
+    <t>1989/10/03 21:05:31</t>
+  </si>
+  <si>
+    <t>04/05/2011 21:35:58</t>
+  </si>
+  <si>
+    <t>1990/07/05 11:40:23</t>
+  </si>
+  <si>
+    <t>07/04/2011 09:43:25</t>
+  </si>
+  <si>
+    <t>1985/06/04 15:01:55</t>
+  </si>
+  <si>
+    <t>04/06/2015 09:17:33</t>
+  </si>
+  <si>
+    <t>2000/05/26 01:36:36</t>
+  </si>
+  <si>
+    <t>27/10/2010 14:59:19</t>
+  </si>
+  <si>
+    <t>2005/06/08 03:07:30</t>
+  </si>
+  <si>
+    <t>27/07/2012 14:21:59</t>
+  </si>
+  <si>
+    <t>2009/09/19 06:01:00</t>
+  </si>
+  <si>
+    <t>12/08/2019 09:26:46</t>
+  </si>
+  <si>
+    <t>1982/10/31 09:58:53</t>
+  </si>
+  <si>
+    <t>04/01/2012 14:43:47</t>
+  </si>
+  <si>
+    <t>1987/01/15 02:25:15</t>
+  </si>
+  <si>
+    <t>03/08/2017 19:38:04</t>
+  </si>
+  <si>
+    <t>2004/08/11 22:08:43</t>
+  </si>
+  <si>
+    <t>04/02/2012 02:15:24</t>
+  </si>
+  <si>
+    <t>1989/08/23 08:21:28</t>
+  </si>
+  <si>
+    <t>19/12/2011 06:34:22</t>
+  </si>
+  <si>
+    <t>2004/02/15 19:39:14</t>
+  </si>
+  <si>
+    <t>21/02/2020 23:31:27</t>
+  </si>
+  <si>
+    <t>1981/07/28 01:07:57</t>
+  </si>
+  <si>
+    <t>21/02/2015 08:36:00</t>
+  </si>
+  <si>
+    <t>1986/08/22 02:07:20</t>
+  </si>
+  <si>
+    <t>18/02/2018 02:40:13</t>
+  </si>
+  <si>
+    <t>1998/08/23 00:20:47</t>
+  </si>
+  <si>
+    <t>12/07/2011 01:35:17</t>
+  </si>
+  <si>
+    <t>1990/11/08 23:03:21</t>
   </si>
 </sst>
 </file>
@@ -1013,12 +1013,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1054,6 +1054,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,22 +1137,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,14 +1152,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1115,8 +1159,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,76 +1190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1214,13 +1207,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,55 +1237,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,25 +1279,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,43 +1303,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,13 +1333,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,7 +1363,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,10 +1403,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1430,45 +1421,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1499,157 +1451,198 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2026,8 +2019,8 @@
   <sheetPr/>
   <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -4642,7 +4635,7 @@
         <v>79</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H98" si="2">CONCATENATE(SUBSTITUTE(B67," ",""),"",,"@gmail.com")</f>
+        <f t="shared" ref="H67:H100" si="2">CONCATENATE(SUBSTITUTE(B67," ",""),"",,"@gmail.com")</f>
         <v>HoangThanhNguyen@gmail.com</v>
       </c>
       <c r="I67" s="6" t="s">
@@ -5890,7 +5883,7 @@
         <v>50</v>
       </c>
       <c r="H99" s="4" t="str">
-        <f>CONCATENATE(SUBSTITUTE(B99," ",""),"",,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>NguyenGiaThien@gmail.com</v>
       </c>
       <c r="I99" s="6" t="s">
@@ -5929,7 +5922,7 @@
         <v>54</v>
       </c>
       <c r="H100" s="4" t="str">
-        <f>CONCATENATE(SUBSTITUTE(B100," ",""),"",,"@gmail.com")</f>
+        <f t="shared" si="2"/>
         <v>NguyenLeChi@gmail.com</v>
       </c>
       <c r="I100" s="6" t="s">
